--- a/reverseprimer-v3_35.xlsx
+++ b/reverseprimer-v3_35.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_35" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R3265-TGACCTCTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACCTCTCTGTCTCGTGGGCTCGG</t>
+    <t>R3265-AACAGACACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACAGACACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R3266-GTGTGCTGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGTGCTGTAGTCTCGTGGGCTCGG</t>
+    <t>R3266-CGTACCTGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTACCTGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>R3267-AGGTCGACAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGTCGACATGTCTCGTGGGCTCGG</t>
+    <t>R3267-GACTGCTCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACTGCTCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>R3268-CCTCTTGACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTCTTGACAGTCTCGTGGGCTCGG</t>
+    <t>R3268-GGTACTCTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTACTCTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>R3269-TACACCATGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACACCATGGGTCTCGTGGGCTCGG</t>
+    <t>R3269-AAGATGCTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGATGCTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>R3270-CGTTCCAGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTTCCAGATGTCTCGTGGGCTCGG</t>
+    <t>R3270-AACCTCTGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACCTCTGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>R3271-AACTTCGACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACTTCGACCGTCTCGTGGGCTCGG</t>
+    <t>R3271-AGTTGAGCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTTGAGCACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>R3272-AGCTTGAAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCTTGAAGCGTCTCGTGGGCTCGG</t>
+    <t>R3272-CGAGTTGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGAGTTGAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>R3273-AGTCCTGACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTCCTGACAGTCTCGTGGGCTCGG</t>
+    <t>R3273-TGTGAACAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTGAACAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>R3274-TCATGCTAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCATGCTAGTGTCTCGTGGGCTCGG</t>
+    <t>R3274-GAGCAGTTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGCAGTTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>R3275-AGCAGTACTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCAGTACTTGTCTCGTGGGCTCGG</t>
+    <t>R3275-TACACCTCGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACACCTCGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>R3276-CATGGATGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATGGATGCAGTCTCGTGGGCTCGG</t>
+    <t>R3276-TACAAGAGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACAAGAGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>R3277-AGCACTGTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCACTGTACGTCTCGTGGGCTCGG</t>
+    <t>R3277-GGTCTTGCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTCTTGCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>R3278-GTACACCATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACACCATCGTCTCGTGGGCTCGG</t>
+    <t>R3278-CTTGAGAGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTGAGAGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>R3279-AGTCTCATCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTCTCATCTGTCTCGTGGGCTCGG</t>
+    <t>R3279-GACAGAGCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACAGAGCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>R3280-ACTCATGCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCATGCTAGTCTCGTGGGCTCGG</t>
+    <t>R3280-GTTCGTCGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTCGTCGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>R3281-AAGAACCTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGAACCTCGGTCTCGTGGGCTCGG</t>
+    <t>R3281-ACATCTCCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACATCTCCTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>R3282-GACATGACTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACATGACTGGTCTCGTGGGCTCGG</t>
+    <t>R3282-TCCATCTCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCATCTCTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>R3283-GTTGGAGTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTGGAGTCAGTCTCGTGGGCTCGG</t>
+    <t>R3283-CGTTCATCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTTCATCTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>R3284-TTCGATCTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCGATCTAGGTCTCGTGGGCTCGG</t>
+    <t>R3284-AAGGTCTCGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGGTCTCGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>R3285-AGAGAAGTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGAAGTGCGTCTCGTGGGCTCGG</t>
+    <t>R3285-TAGGTACACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGGTACACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>R3286-ATGATCCTGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGATCCTGGGTCTCGTGGGCTCGG</t>
+    <t>R3286-ACCTAGACAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCTAGACATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>R3287-GGTAGGTACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTAGGTACTGTCTCGTGGGCTCGG</t>
+    <t>R3287-TACAGACCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACAGACCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>R3288-ACTACTTCGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTACTTCGTGTCTCGTGGGCTCGG</t>
+    <t>R3288-TCTCAAGATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCAAGATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>R3289-GACACTACAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACACTACAGGTCTCGTGGGCTCGG</t>
+    <t>R3289-TACGAGACAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACGAGACAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>R3290-TTGGTCTCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGGTCTCATGTCTCGTGGGCTCGG</t>
+    <t>R3290-GTAGCTACGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGCTACGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>R3291-GCTGATCACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTGATCACTGTCTCGTGGGCTCGG</t>
+    <t>R3291-TGTGGTAGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTGGTAGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>R3292-AACAAGGTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACAAGGTTCGTCTCGTGGGCTCGG</t>
+    <t>R3292-GTCAACAGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCAACAGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>R3293-TTGGAGAGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGGAGAGTTGTCTCGTGGGCTCGG</t>
+    <t>R3293-TCACATCCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACATCCTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>R3294-TGTCTCATGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTCTCATGGGTCTCGTGGGCTCGG</t>
+    <t>R3294-ACAACACAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAACACAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>R3295-TGATCTACTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGATCTACTGGTCTCGTGGGCTCGG</t>
+    <t>R3295-GAGCTTGAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGCTTGAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>R3296-CAGAGTGTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGAGTGTACGTCTCGTGGGCTCGG</t>
+    <t>R3296-AACGTCCTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACGTCCTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>R3297-GCAAGTGTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCAAGTGTACGTCTCGTGGGCTCGG</t>
+    <t>R3297-ATCGTGACTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCGTGACTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>R3298-ATCCACATGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCCACATGAGTCTCGTGGGCTCGG</t>
+    <t>R3298-TCCACTGAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCACTGAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>R3299-TGAGGACAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAGGACAAGGTCTCGTGGGCTCGG</t>
+    <t>R3299-AGGTCAGGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGTCAGGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>R3300-GTACACATGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACACATGGGTCTCGTGGGCTCGG</t>
+    <t>R3300-GACTTGTGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACTTGTGCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>R3301-GATCCACCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATCCACCAAGTCTCGTGGGCTCGG</t>
+    <t>R3301-TGCATGATGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCATGATGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>R3302-AAGCACAACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGCACAACGGTCTCGTGGGCTCGG</t>
+    <t>R3302-CTGACACATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGACACATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>R3303-GATCGATGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATCGATGCTGTCTCGTGGGCTCGG</t>
+    <t>R3303-GTACCACTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACCACTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>R3304-TTCACCTCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCACCTCTTGTCTCGTGGGCTCGG</t>
+    <t>R3304-GCAAGCAGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCAAGCAGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>R3305-GCACTTCTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCACTTCTTCGTCTCGTGGGCTCGG</t>
+    <t>R3305-AGCATGACAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCATGACACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>R3306-ATGCTGACGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGCTGACGAGTCTCGTGGGCTCGG</t>
+    <t>R3306-AAGGTCGAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGGTCGAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>R3307-AGAGACTGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGACTGTAGTCTCGTGGGCTCGG</t>
+    <t>R3307-AGGTGAGCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGTGAGCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>R3308-GGATGAACTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGATGAACTAGTCTCGTGGGCTCGG</t>
+    <t>R3308-AACTGCAGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTGCAGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>R3309-TACGACCTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACGACCTGAGTCTCGTGGGCTCGG</t>
+    <t>R3309-GTCGAGTGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCGAGTGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>R3310-GGACTCTCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGACTCTCTAGTCTCGTGGGCTCGG</t>
+    <t>R3310-TGAACACGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAACACGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>R3311-TAGTGAGACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGTGAGACAGTCTCGTGGGCTCGG</t>
+    <t>R3311-GTCAGAGATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCAGAGATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>R3312-CTTGTCACCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTGTCACCAGTCTCGTGGGCTCGG</t>
+    <t>R3312-AGACACTCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACACTCACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>R3313-ATCGACATCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCGACATCGGTCTCGTGGGCTCGG</t>
+    <t>R3313-AGATCGATCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGATCGATCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>R3314-TGTTGCTCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTTGCTCTCGTCTCGTGGGCTCGG</t>
+    <t>R3314-TGAGCTAGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAGCTAGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>R3315-TGTAGAGACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTAGAGACGGTCTCGTGGGCTCGG</t>
+    <t>R3315-TTCCTGATGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCCTGATGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>R3316-GAAGTCAAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGTCAAGTGTCTCGTGGGCTCGG</t>
+    <t>R3316-TGGAGATGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGAGATGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>R3317-GAGTACCAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGTACCAAGGTCTCGTGGGCTCGG</t>
+    <t>R3317-GATGTGGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGTGGAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>R3318-GAAGCTAGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGCTAGGAGTCTCGTGGGCTCGG</t>
+    <t>R3318-AAGTAGGTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGTAGGTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>R3319-GACTGAACTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACTGAACTTGTCTCGTGGGCTCGG</t>
+    <t>R3319-AGGAACGTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGAACGTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>R3320-ACTCACTAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCACTAGCGTCTCGTGGGCTCGG</t>
+    <t>R3320-TCACACTCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACACTCTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>R3321-GACGAAGTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACGAAGTCAGTCTCGTGGGCTCGG</t>
+    <t>R3321-TGCAAGTACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCAAGTACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>R3322-GAGATGAGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGATGAGGTGTCTCGTGGGCTCGG</t>
+    <t>R3322-GGACCTTCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGACCTTCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>R3323-GAGTAGTCCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGTAGTCCTGTCTCGTGGGCTCGG</t>
+    <t>R3323-CAGGAACTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGGAACTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>R3324-GAGTCAGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGTCAGAAGGTCTCGTGGGCTCGG</t>
+    <t>R3324-TGCTTCTGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCTTCTGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>R3325-TGACTGGAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACTGGAACGTCTCGTGGGCTCGG</t>
+    <t>R3325-TTCGACTCCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCGACTCCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>R3326-AGTTCGAAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTTCGAAGGGTCTCGTGGGCTCGG</t>
+    <t>R3326-GTTCTCTCCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTCTCTCCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>R3327-ATCGATCCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCGATCCTAGTCTCGTGGGCTCGG</t>
+    <t>R3327-AGTCACTACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTCACTACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>R3328-TACGATCGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACGATCGTTGTCTCGTGGGCTCGG</t>
+    <t>R3328-GAAGTAGGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGTAGGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>R3329-CTCCTACTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCCTACTAGGTCTCGTGGGCTCGG</t>
+    <t>R3329-ATCACAGAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCACAGAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>R3330-AGTGCTCATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTGCTCATGGTCTCGTGGGCTCGG</t>
+    <t>R3330-AAGTAGCAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGTAGCAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>R3331-AGCATGGATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCATGGATGGTCTCGTGGGCTCGG</t>
+    <t>R3331-TGCAAGGTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCAAGGTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>R3332-AGACGACCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACGACCATGTCTCGTGGGCTCGG</t>
+    <t>R3332-TGCTTGAACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCTTGAACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>R3333-ATCAGCTCGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCAGCTCGAGTCTCGTGGGCTCGG</t>
+    <t>R3333-AACACTGGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACACTGGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>R3334-GTGACATGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGACATGTTGTCTCGTGGGCTCGG</t>
+    <t>R3334-TAGAGTGCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGAGTGCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>R3335-TACACTTGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACACTTGACGTCTCGTGGGCTCGG</t>
+    <t>R3335-GATCTCTCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATCTCTCACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>R3336-ATCTGGATCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCTGGATCCGTCTCGTGGGCTCGG</t>
+    <t>R3336-ACTTGCACTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTTGCACTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>R3337-GTGTACTGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGTACTGCTGTCTCGTGGGCTCGG</t>
+    <t>R3337-TACCTGGTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACCTGGTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>R3338-AGAAGACCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAAGACCTAGTCTCGTGGGCTCGG</t>
+    <t>R3338-TCGTGACAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGTGACAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>R3339-CATGTCTACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATGTCTACCGTCTCGTGGGCTCGG</t>
+    <t>R3339-TCTGCTGTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTGCTGTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>R3340-TGCTTCCAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCTTCCAGTGTCTCGTGGGCTCGG</t>
+    <t>R3340-CATGTGACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATGTGACAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>R3341-CACTGACGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACTGACGATGTCTCGTGGGCTCGG</t>
+    <t>R3341-CACGAGAAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACGAGAAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>R3342-GTTCCACGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTCCACGATGTCTCGTGGGCTCGG</t>
+    <t>R3342-AGAGTGCTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGTGCTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>R3343-ATGACTCTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGACTCTCAGTCTCGTGGGCTCGG</t>
+    <t>R3343-AACCTGAAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACCTGAAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>R3344-GGTACATCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTACATCACGTCTCGTGGGCTCGG</t>
+    <t>R3344-ATCTGAGTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCTGAGTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>R3345-GATGTTCCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATGTTCCATGTCTCGTGGGCTCGG</t>
+    <t>R3345-CTCAACCTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCAACCTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>R3346-AGCTAGCTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCTAGCTGTGTCTCGTGGGCTCGG</t>
+    <t>R3346-AGAGCTTCGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGCTTCGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>R3347-GGAGTTGTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGAGTTGTTCGTCTCGTGGGCTCGG</t>
+    <t>R3347-TTGACATGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGACATGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>R3348-GGTAGCATGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTAGCATGAGTCTCGTGGGCTCGG</t>
+    <t>R3348-GCACATCTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCACATCTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>R3349-GAACAACCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACAACCACGTCTCGTGGGCTCGG</t>
+    <t>R3349-GCTACTAGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTACTAGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>R3350-TACTCCTACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACTCCTACTGTCTCGTGGGCTCGG</t>
+    <t>R3350-TGGAAGCTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGAAGCTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>R3351-CAAGTGAGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGTGAGCAGTCTCGTGGGCTCGG</t>
+    <t>R3351-CCTACACGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTACACGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>R3352-AACCTGTTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACCTGTTCGGTCTCGTGGGCTCGG</t>
+    <t>R3352-TAGACACTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGACACTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>R3353-ACACTACTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACTACTGTGTCTCGTGGGCTCGG</t>
+    <t>R3353-AACACACAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACACACAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>R3354-AGGAACGTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGAACGTAGGTCTCGTGGGCTCGG</t>
+    <t>R3354-CTAGTGGTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTAGTGGTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>R3355-TGAGAGACCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAGAGACCTGTCTCGTGGGCTCGG</t>
+    <t>R3355-TAGAGACACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGAGACACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>R3356-CTCATCACAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCATCACAGGTCTCGTGGGCTCGG</t>
+    <t>R3356-TCAACTCACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAACTCACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>R3357-GGTACGAGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTACGAGATGTCTCGTGGGCTCGG</t>
+    <t>R3357-TGAGACCAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAGACCAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>R3358-CTCAACCTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCAACCTGAGTCTCGTGGGCTCGG</t>
+    <t>R3358-CCTAGTACTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTAGTACTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>R3359-AGTACAGAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTACAGAACGTCTCGTGGGCTCGG</t>
+    <t>R3359-ACTTGCTAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTTGCTAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>R3360-AGGATGACTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGATGACTTGTCTCGTGGGCTCGG</t>
+    <t>R3360-GAACTGCAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACTGCAACGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
